--- a/data/trans_orig/P16A18-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Clase-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1297,7 +1297,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2054,7 +2054,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2811,7 +2811,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A18-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Clase-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>35386</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26057</v>
+        <v>26042</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47891</v>
+        <v>48247</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1387183550355698</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1021455935684003</v>
+        <v>0.1020879381628357</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1877371320338292</v>
+        <v>0.1891355622463987</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>219708</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>207203</v>
+        <v>206847</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>229037</v>
+        <v>229052</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8612816449644302</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8122628679661706</v>
+        <v>0.8108644377536013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8978544064315995</v>
+        <v>0.8979120618371643</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>44022</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32422</v>
+        <v>32561</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56865</v>
+        <v>57860</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1319739716577288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09719727383531503</v>
+        <v>0.09761383433892454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1704739624805297</v>
+        <v>0.1734560048435878</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>289547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>276704</v>
+        <v>275709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>301147</v>
+        <v>301008</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8680260283422713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8295260375194704</v>
+        <v>0.826543995156412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.902802726164685</v>
+        <v>0.9023861656610753</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>9633</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4634</v>
+        <v>4006</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16569</v>
+        <v>16648</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07408604106426823</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03564065342903571</v>
+        <v>0.03080875674931185</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1274254151818983</v>
+        <v>0.1280340344390967</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>120398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113462</v>
+        <v>113383</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>125397</v>
+        <v>126025</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9259139589357318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.872574584818102</v>
+        <v>0.8719659655609034</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9643593465709643</v>
+        <v>0.9691912432506883</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>52348</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38990</v>
+        <v>39796</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66873</v>
+        <v>66520</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09384895576832358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06990046228815014</v>
+        <v>0.07134554826352331</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1198888114941614</v>
+        <v>0.1192551545822974</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>505445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>490920</v>
+        <v>491273</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>518803</v>
+        <v>517997</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9061510442316765</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8801111885058386</v>
+        <v>0.8807448454177026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9300995377118498</v>
+        <v>0.9286544517364766</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>33839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23737</v>
+        <v>23009</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49185</v>
+        <v>46923</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08079529350363086</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05667455929244122</v>
+        <v>0.05493580164265031</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1174350602446777</v>
+        <v>0.1120337474391833</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>384989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>369643</v>
+        <v>371905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>395091</v>
+        <v>395819</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9192047064963691</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8825649397553222</v>
+        <v>0.8879662525608166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9433254407075587</v>
+        <v>0.9450641983573497</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>35948</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25885</v>
+        <v>24568</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48919</v>
+        <v>48904</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05434643091584607</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03913228710540781</v>
+        <v>0.03714106538935297</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07395600903345226</v>
+        <v>0.07393336351645657</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>625518</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>612547</v>
+        <v>612562</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>635581</v>
+        <v>636898</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.945653569084154</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9260439909665477</v>
+        <v>0.9260666364835435</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9608677128945923</v>
+        <v>0.9628589346106471</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>211178</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>182161</v>
+        <v>184573</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>239042</v>
+        <v>241440</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08960443545217224</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07729204739221231</v>
+        <v>0.07831577839595294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1014272609175667</v>
+        <v>0.1024446288474785</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>2145604</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2117740</v>
+        <v>2115342</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2174621</v>
+        <v>2172209</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9103955645478278</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8985727390824333</v>
+        <v>0.8975553711525214</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9227079526077877</v>
+        <v>0.9216842216040471</v>
       </c>
     </row>
     <row r="24">
@@ -1381,19 +1381,19 @@
         <v>33231</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22868</v>
+        <v>22313</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46293</v>
+        <v>45563</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1195589636595007</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08227642991197484</v>
+        <v>0.08027871530116817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1665542424893748</v>
+        <v>0.1639257016292761</v>
       </c>
     </row>
     <row r="5">
@@ -1410,19 +1410,19 @@
         <v>244716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231654</v>
+        <v>232384</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>255079</v>
+        <v>255634</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8804410363404992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8334457575106246</v>
+        <v>0.8360742983707239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9177235700880252</v>
+        <v>0.9197212846988321</v>
       </c>
     </row>
     <row r="6">
@@ -1472,19 +1472,19 @@
         <v>27603</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18146</v>
+        <v>17920</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40637</v>
+        <v>40504</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09253683028823817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06083306477381747</v>
+        <v>0.06007558838802109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1362310438490892</v>
+        <v>0.1357860339820071</v>
       </c>
     </row>
     <row r="8">
@@ -1501,19 +1501,19 @@
         <v>270692</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>257658</v>
+        <v>257791</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>280149</v>
+        <v>280375</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9074631697117618</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8637689561509106</v>
+        <v>0.8642139660179933</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9391669352261824</v>
+        <v>0.9399244116119789</v>
       </c>
     </row>
     <row r="9">
@@ -1563,19 +1563,19 @@
         <v>14730</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8623</v>
+        <v>8639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22143</v>
+        <v>23917</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08636640824115849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05055551288714535</v>
+        <v>0.0506521645447617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1298263313368181</v>
+        <v>0.1402315326119573</v>
       </c>
     </row>
     <row r="11">
@@ -1592,19 +1592,19 @@
         <v>155826</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>148413</v>
+        <v>146639</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>161933</v>
+        <v>161917</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9136335917588415</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8701736686631812</v>
+        <v>0.8597684673880425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9494444871128547</v>
+        <v>0.9493478354552382</v>
       </c>
     </row>
     <row r="12">
@@ -1654,19 +1654,19 @@
         <v>65979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51941</v>
+        <v>52389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82543</v>
+        <v>82530</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1021566323893943</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08042115592592253</v>
+        <v>0.08111537919102614</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1278042235781106</v>
+        <v>0.1277838995432468</v>
       </c>
     </row>
     <row r="14">
@@ -1683,19 +1683,19 @@
         <v>579879</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>563315</v>
+        <v>563328</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>593917</v>
+        <v>593469</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8978433676106057</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8721957764218892</v>
+        <v>0.8722161004567531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.919578844074077</v>
+        <v>0.9188846208089738</v>
       </c>
     </row>
     <row r="15">
@@ -1745,19 +1745,19 @@
         <v>38863</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28237</v>
+        <v>28382</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52358</v>
+        <v>51181</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08117022267587005</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0589752036587013</v>
+        <v>0.05927910888669576</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1093556136852181</v>
+        <v>0.1068977650825994</v>
       </c>
     </row>
     <row r="17">
@@ -1774,19 +1774,19 @@
         <v>439924</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>426429</v>
+        <v>427606</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>450550</v>
+        <v>450405</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.91882977732413</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8906443863147816</v>
+        <v>0.8931022349174004</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9410247963412981</v>
+        <v>0.9407208911133043</v>
       </c>
     </row>
     <row r="18">
@@ -1836,19 +1836,19 @@
         <v>52755</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40387</v>
+        <v>39859</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67482</v>
+        <v>67599</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09550318974524595</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07311397058274174</v>
+        <v>0.07215737318509458</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1221641269586662</v>
+        <v>0.1223749894465074</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>499634</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>484907</v>
+        <v>484790</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>512002</v>
+        <v>512530</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.904496810254754</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8778358730413338</v>
+        <v>0.8776250105534926</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9268860294172583</v>
+        <v>0.9278426268149054</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>233161</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>205228</v>
+        <v>203473</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>265773</v>
+        <v>265869</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09619539503764682</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08467074454442866</v>
+        <v>0.08394698047561192</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1096498835772978</v>
+        <v>0.1096893679371012</v>
       </c>
     </row>
     <row r="23">
@@ -1956,19 +1956,19 @@
         <v>2190671</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2158059</v>
+        <v>2157963</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2218604</v>
+        <v>2220359</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9038046049623532</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8903501164227022</v>
+        <v>0.8903106320628987</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9153292554555713</v>
+        <v>0.916053019524388</v>
       </c>
     </row>
     <row r="24">
@@ -2138,19 +2138,19 @@
         <v>17218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10657</v>
+        <v>10476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27525</v>
+        <v>26625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06135724544330012</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03797686014548235</v>
+        <v>0.03733158112803683</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09808908762748639</v>
+        <v>0.09488051935578502</v>
       </c>
     </row>
     <row r="5">
@@ -2167,19 +2167,19 @@
         <v>263393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253086</v>
+        <v>253986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269954</v>
+        <v>270135</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9386427545566999</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9019109123725133</v>
+        <v>0.9051194806442138</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9620231398545176</v>
+        <v>0.9626684188719626</v>
       </c>
     </row>
     <row r="6">
@@ -2229,19 +2229,19 @@
         <v>27680</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18585</v>
+        <v>19049</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38738</v>
+        <v>38909</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08673353444496187</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05823601062641742</v>
+        <v>0.05969059980369468</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1213837968520049</v>
+        <v>0.1219203540326982</v>
       </c>
     </row>
     <row r="8">
@@ -2258,19 +2258,19 @@
         <v>291454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>280396</v>
+        <v>280225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>300549</v>
+        <v>300085</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9132664655550381</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8786162031479952</v>
+        <v>0.8780796459673017</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9417639893735825</v>
+        <v>0.9403094001963049</v>
       </c>
     </row>
     <row r="9">
@@ -2320,19 +2320,19 @@
         <v>4826</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1878</v>
+        <v>1893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10201</v>
+        <v>10809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04663357088897372</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0181442631722321</v>
+        <v>0.01829030788621482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09857584317838779</v>
+        <v>0.1044502483461419</v>
       </c>
     </row>
     <row r="11">
@@ -2349,19 +2349,19 @@
         <v>98658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93283</v>
+        <v>92675</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101606</v>
+        <v>101591</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9533664291110263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9014241568216115</v>
+        <v>0.895549751653858</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9818557368277678</v>
+        <v>0.9817096921137852</v>
       </c>
     </row>
     <row r="12">
@@ -2411,19 +2411,19 @@
         <v>41766</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30863</v>
+        <v>30970</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56309</v>
+        <v>54802</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0643719316115629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04756733701521693</v>
+        <v>0.04773272911828717</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08678658849181631</v>
+        <v>0.0844646535960481</v>
       </c>
     </row>
     <row r="14">
@@ -2440,19 +2440,19 @@
         <v>607053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>592510</v>
+        <v>594017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>617956</v>
+        <v>617849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.935628068388437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9132134115081838</v>
+        <v>0.915535346403952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9524326629847831</v>
+        <v>0.9522672708817128</v>
       </c>
     </row>
     <row r="15">
@@ -2502,19 +2502,19 @@
         <v>24597</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16128</v>
+        <v>15819</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36873</v>
+        <v>36310</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05325170226103258</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03491592786206368</v>
+        <v>0.03424835659952601</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07982953594483107</v>
+        <v>0.07861133012207421</v>
       </c>
     </row>
     <row r="17">
@@ -2531,19 +2531,19 @@
         <v>437301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>425025</v>
+        <v>425588</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>445770</v>
+        <v>446079</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9467482977389674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9201704640551691</v>
+        <v>0.9213886698779258</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9650840721379363</v>
+        <v>0.965751643400474</v>
       </c>
     </row>
     <row r="18">
@@ -2593,19 +2593,19 @@
         <v>30555</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21521</v>
+        <v>21059</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42453</v>
+        <v>43061</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05949584699857209</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04190498539861665</v>
+        <v>0.04100566999079192</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08266351712804018</v>
+        <v>0.08384721183293778</v>
       </c>
     </row>
     <row r="20">
@@ -2622,19 +2622,19 @@
         <v>483007</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>471109</v>
+        <v>470501</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>492041</v>
+        <v>492503</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9405041530014279</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9173364828719598</v>
+        <v>0.9161527881670621</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9580950146013834</v>
+        <v>0.958994330009208</v>
       </c>
     </row>
     <row r="21">
@@ -2684,19 +2684,19 @@
         <v>146640</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>125811</v>
+        <v>124965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>169570</v>
+        <v>171724</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06300315414363832</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05405385218760692</v>
+        <v>0.05369041307074945</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07285473145325544</v>
+        <v>0.07378037032783663</v>
       </c>
     </row>
     <row r="23">
@@ -2713,19 +2713,19 @@
         <v>2180868</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2157938</v>
+        <v>2155784</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2201697</v>
+        <v>2202543</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9369968458563617</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9271452685467446</v>
+        <v>0.9262196296721635</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9459461478123931</v>
+        <v>0.9463095869292506</v>
       </c>
     </row>
     <row r="24">
@@ -2895,19 +2895,19 @@
         <v>7795</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3815</v>
+        <v>3885</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14202</v>
+        <v>14633</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02274208878851401</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01112885123319597</v>
+        <v>0.01133493218915437</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04143451721743038</v>
+        <v>0.04269228790611228</v>
       </c>
     </row>
     <row r="5">
@@ -2924,19 +2924,19 @@
         <v>334967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>328560</v>
+        <v>328129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>338947</v>
+        <v>338877</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.977257911211486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9585654827825694</v>
+        <v>0.9573077120938879</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9888711487668038</v>
+        <v>0.9886650678108458</v>
       </c>
     </row>
     <row r="6">
@@ -2986,19 +2986,19 @@
         <v>12668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6389</v>
+        <v>6373</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21796</v>
+        <v>21662</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04015745624202859</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02025363762889738</v>
+        <v>0.02020122502129178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0690943819134739</v>
+        <v>0.06866791804571876</v>
       </c>
     </row>
     <row r="8">
@@ -3015,19 +3015,19 @@
         <v>302786</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>293658</v>
+        <v>293792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>309065</v>
+        <v>309081</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9598425437579714</v>
+        <v>0.9598425437579712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9309056180865247</v>
+        <v>0.9313320819542809</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9797463623711025</v>
+        <v>0.9797987749787083</v>
       </c>
     </row>
     <row r="9">
@@ -3077,19 +3077,19 @@
         <v>5338</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1923</v>
+        <v>2023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13402</v>
+        <v>12811</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05640011736941027</v>
+        <v>0.05640011736941026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02031878789822614</v>
+        <v>0.02137531254717405</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1415992965952694</v>
+        <v>0.1353536588780399</v>
       </c>
     </row>
     <row r="11">
@@ -3106,19 +3106,19 @@
         <v>89309</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81245</v>
+        <v>81836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>92724</v>
+        <v>92624</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9435998826305898</v>
+        <v>0.9435998826305899</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8584007034047306</v>
+        <v>0.8646463411219605</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9796812121017739</v>
+        <v>0.9786246874528264</v>
       </c>
     </row>
     <row r="12">
@@ -3168,19 +3168,19 @@
         <v>23219</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14863</v>
+        <v>15289</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33668</v>
+        <v>33606</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03859332877076002</v>
+        <v>0.03859332877076003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02470437425318933</v>
+        <v>0.02541242882951491</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05596233906738966</v>
+        <v>0.05585927569287295</v>
       </c>
     </row>
     <row r="14">
@@ -3197,19 +3197,19 @@
         <v>578407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>567958</v>
+        <v>568020</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>586763</v>
+        <v>586337</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9614066712292403</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9440376609326102</v>
+        <v>0.9441407243071271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9752956257468108</v>
+        <v>0.974587571170485</v>
       </c>
     </row>
     <row r="15">
@@ -3259,19 +3259,19 @@
         <v>7977</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3958</v>
+        <v>4027</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13778</v>
+        <v>14453</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01748514772483841</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008674583622774679</v>
+        <v>0.008827006678466198</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03019917547168485</v>
+        <v>0.03167944511326409</v>
       </c>
     </row>
     <row r="17">
@@ -3288,19 +3288,19 @@
         <v>448260</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>442459</v>
+        <v>441784</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>452279</v>
+        <v>452210</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9825148522751614</v>
+        <v>0.9825148522751616</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9698008245283152</v>
+        <v>0.9683205548867357</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9913254163772254</v>
+        <v>0.9911729933215337</v>
       </c>
     </row>
     <row r="18">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11725</v>
+        <v>10811</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00797327994419425</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02958618933964226</v>
+        <v>0.02727893674450919</v>
       </c>
     </row>
     <row r="20">
@@ -3379,16 +3379,16 @@
         <v>393141</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>384576</v>
+        <v>385490</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>396301</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9920267200558059</v>
+        <v>0.9920267200558058</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9704138106603578</v>
+        <v>0.9727210632554906</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3441,19 +3441,19 @@
         <v>60157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44831</v>
+        <v>45988</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76301</v>
+        <v>76575</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02725703147789761</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02031264701185596</v>
+        <v>0.02083701046233805</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03457199558640411</v>
+        <v>0.03469581245307204</v>
       </c>
     </row>
     <row r="23">
@@ -3470,19 +3470,19 @@
         <v>2146871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2130727</v>
+        <v>2130453</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2162197</v>
+        <v>2161040</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9727429685221024</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9654280044135959</v>
+        <v>0.965304187546928</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.979687352988144</v>
+        <v>0.9791629895376616</v>
       </c>
     </row>
     <row r="24">
